--- a/dataCleaner/Case-MovingDataInRoom/figures/tag1_2022-02-03_time.xlsx
+++ b/dataCleaner/Case-MovingDataInRoom/figures/tag1_2022-02-03_time.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44595.39444444444</v>
+        <v>44595.39479166667</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>44595.39513888889</v>
@@ -460,7 +460,7 @@
         <v>44595.43333333333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44595.45347222222</v>
+        <v>44595.45416666667</v>
       </c>
     </row>
     <row r="4">
@@ -471,7 +471,7 @@
         <v>44595.54305555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44595.55902777778</v>
+        <v>44595.55972222222</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>44595.61805555555</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44595.63194444445</v>
+        <v>44595.63263888889</v>
       </c>
     </row>
     <row r="6">
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44595.71388888889</v>
+        <v>44595.71423611111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44595.74236111111</v>
+        <v>44595.74305555555</v>
       </c>
     </row>
     <row r="7">
@@ -501,32 +501,32 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44595.64027777778</v>
+        <v>44595.42881944445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44595.71319444444</v>
+        <v>44595.43263888889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44595.35763888889</v>
+        <v>44595.640625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44595.37152777778</v>
+        <v>44595.71388888889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44595.38263888889</v>
+        <v>44595.95486111111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44595.38888888889</v>
+        <v>44595.95590277778</v>
       </c>
     </row>
     <row r="10">
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44595.39861111111</v>
+        <v>44595.35555555556</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44595.41111111111</v>
+        <v>44595.43229166666</v>
       </c>
     </row>
     <row r="11">
@@ -545,10 +545,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44595.48541666667</v>
+        <v>44595.45590277778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44595.49166666667</v>
+        <v>44595.46284722222</v>
       </c>
     </row>
     <row r="12">
@@ -556,10 +556,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44595.50763888889</v>
+        <v>44595.48506944445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44595.54166666666</v>
+        <v>44595.54236111111</v>
       </c>
     </row>
     <row r="13">
@@ -567,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44595.56111111111</v>
+        <v>44595.56041666667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44595.58263888889</v>
+        <v>44595.61736111111</v>
       </c>
     </row>
     <row r="14">
@@ -578,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44595.61180555556</v>
+        <v>44595.63298611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44595.61666666667</v>
+        <v>44595.63993055555</v>
       </c>
     </row>
     <row r="15">
@@ -589,10 +589,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44595.75416666667</v>
+        <v>44595.74375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44595.76111111111</v>
+        <v>44595.80520833333</v>
       </c>
     </row>
     <row r="16">
@@ -600,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44595.79097222222</v>
+        <v>44595.81423611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44595.80277777778</v>
+        <v>44595.81458333333</v>
       </c>
     </row>
     <row r="17">
@@ -611,230 +611,32 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44595.85833333333</v>
+        <v>44595.85555555556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44595.89444444444</v>
+        <v>44595.96805555555</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44595.90763888889</v>
+        <v>44595.79513888889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44595.9125</v>
+        <v>44595.85694444444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44595.93263888889</v>
+        <v>44595.46319444444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44595.93333333333</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44595.94166666667</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>44595.94444444445</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>44595.95694444444</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>44595.96805555555</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44595.36041666667</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>44595.36458333334</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44595.37361111111</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>44595.38194444445</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44595.38958333333</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>44595.39375</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44595.40763888889</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>44595.43055555555</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44595.45555555556</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>44595.46180555555</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>44595.49305555555</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>44595.5125</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>44595.56041666667</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>44595.56388888889</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>44595.58402777778</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>44595.61527777778</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>44595.63333333333</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>44595.63958333333</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>44595.74583333333</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>44595.75347222222</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>44595.76527777778</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>44595.80486111111</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>44595.89513888889</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>44595.90486111111</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>44595.91319444445</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>44595.96597222222</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>44595.46319444444</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>44595.48333333333</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>6</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>44595.80416666667</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>44595.85486111111</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>7</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>44595.57083333333</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>44595.57222222222</v>
+        <v>44595.48472222222</v>
       </c>
     </row>
   </sheetData>
